--- a/Inventory/Assets/Excel/ExcelData.xlsx
+++ b/Inventory/Assets/Excel/ExcelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\game_team\Inventory\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB8CC45-0379-41C8-8E6A-A1A651F265ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B0E9EC-C0D7-4696-A911-A5737ABC5472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rareName</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -491,20 +499,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,10 +527,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -534,11 +549,18 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF($E2 =0, "Common", IF($E2 = 1, "Rare", IF($E2 = 2, "Unique", "Legendary")))</f>
+        <v>Common</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -551,11 +573,18 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F9" si="0">IF($E3 =0, "Common", IF($E3 = 1, "Rare", IF($E3 = 2, "Unique", "Legendary")))</f>
+        <v>Common</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -568,11 +597,18 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>Common</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -585,11 +621,18 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Common</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -602,11 +645,18 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Common</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -619,11 +669,18 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Common</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -636,11 +693,18 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Common</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -653,17 +717,24 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Common</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="18" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -749,7 +820,7 @@
     <row r="99" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="100" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
     <sortCondition ref="C2:C9"/>
   </sortState>
   <phoneticPr fontId="1"/>

--- a/Inventory/Assets/Excel/ExcelData.xlsx
+++ b/Inventory/Assets/Excel/ExcelData.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\game_team\Inventory\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B0E9EC-C0D7-4696-A911-A5737ABC5472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148011AF-ECF5-4100-AAD6-A20CD0664554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Object" sheetId="1" r:id="rId1"/>
+    <sheet name="Common" sheetId="1" r:id="rId1"/>
+    <sheet name="Rare" sheetId="2" r:id="rId2"/>
+    <sheet name="Unique" sheetId="4" r:id="rId3"/>
+    <sheet name="Legendary" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -501,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -574,11 +577,11 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F9" si="0">IF($E3 =0, "Common", IF($E3 = 1, "Rare", IF($E3 = 2, "Unique", "Legendary")))</f>
-        <v>Common</v>
+        <v>Rare</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -598,11 +601,11 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>Common</v>
+        <v>Unique</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -622,11 +625,11 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>Common</v>
+        <f>IF($E5 =0, "Common", IF($E5 = 1, "Rare", IF($E5 = 2, "Unique", "Legendary")))</f>
+        <v>Legendary</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -827,4 +830,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EEE665-9A6E-4ADB-B90C-60DD148E0C8B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80009E1A-90E9-463E-8301-859820CB9A5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AB2ED6-AB54-44EC-94D3-9BE7F15EB5D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>